--- a/biology/Médecine/Henri_Secretan/Henri_Secretan.xlsx
+++ b/biology/Médecine/Henri_Secretan/Henri_Secretan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Secretan, né à Neuchâtel le 22 février 1856 et mort le 5 mars 1916, est un médecin et chirurgien vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-François Secretan étudie à la Faculté des lettres de Lausanne, le droit puis la médecine, à Genève, Pise et à Paris où il reçoit le titre de docteur.
 Il commence à pratiquer la médecine dès 1885 à Lausanne et devient spécialiste de la médecine des accidents. Il écrit plusieurs livres dont La Société et la Morale en 1892, L'Assurance contre les accidents en 1906.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Henri Secretan », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 DHBS p. 137
